--- a/data/trans_dic/P16A01-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A01-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P16A01-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A01-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,32%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,32%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,78%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,03%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,13%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>7,45; 11,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>9,34; 13,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>6,41; 10,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>6,25; 10,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>4,69; 7,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>6,24; 9,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>5,66; 9,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>6,61; 9,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>6,26; 8,32</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>8,12; 10,49</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>6,42; 9,06</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>6,98; 9,38</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,03%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,66%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,8%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>4,69; 6,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>7,12; 9,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>6,44; 8,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>5,08; 7,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>4,91; 7,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>7,52; 10,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>7,63; 10,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>6,07; 8,8</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,04; 6,75</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>7,78; 9,61</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>7,34; 9,08</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>5,9; 7,69</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,83%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,4%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,36%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,42%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,02%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,78%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,69%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>4,39; 8,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>6,91; 13,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>5,17; 10,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>6,19; 11,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>6,94; 12,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>5,42; 10,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>6,37; 11,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>5,57; 8,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>6,18; 9,64</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>6,76; 11,12</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>6,17; 9,62</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>6,33; 9,39</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,47%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,89%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,23%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,11; 7,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>8,43; 10,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,85; 8,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,94; 7,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,65; 7,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>7,39; 9,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>7,35; 9,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>6,53; 8,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>6,1; 7,31</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>8,19; 9,59</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>7,34; 8,65</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>6,63; 7,9</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A01-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A01-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>8,58%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>8,27%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,25; 10,79</t>
+          <t>6,44; 11,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,61; 9,62</t>
+          <t>6,65; 9,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,98; 9,38</t>
+          <t>7,1; 9,6</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>6,2%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,08; 7,49</t>
+          <t>4,11; 7,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,07; 8,8</t>
+          <t>4,88; 8,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,9; 7,69</t>
+          <t>4,9; 7,28</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>7,93%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,19; 11,07</t>
+          <t>6,4; 11,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,57; 8,8</t>
+          <t>5,69; 8,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,33; 9,39</t>
+          <t>6,54; 9,71</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>6,89%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,94; 7,94</t>
+          <t>5,15; 7,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,53; 8,37</t>
+          <t>5,69; 8,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,63; 7,9</t>
+          <t>5,96; 7,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A01-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A01-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,45; 11,03</t>
+          <t>7,49; 11,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,34; 13,41</t>
+          <t>9,23; 13,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,41; 10,6</t>
+          <t>6,49; 10,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,44; 11,45</t>
+          <t>6,52; 11,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,69; 7,18</t>
+          <t>4,7; 7,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,24; 9,45</t>
+          <t>6,4; 9,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,66; 9,19</t>
+          <t>5,6; 9,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,65; 9,62</t>
+          <t>6,75; 9,65</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,26; 8,32</t>
+          <t>6,37; 8,54</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8,12; 10,49</t>
+          <t>8,24; 10,61</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,42; 9,06</t>
+          <t>6,49; 9,06</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,1; 9,6</t>
+          <t>6,96; 9,69</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,69; 6,99</t>
+          <t>4,74; 7,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,12; 9,86</t>
+          <t>7,25; 9,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,44; 8,91</t>
+          <t>6,51; 8,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,11; 7,07</t>
+          <t>3,9; 6,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,91; 7,28</t>
+          <t>4,76; 7,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,52; 10,4</t>
+          <t>7,55; 10,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,63; 10,29</t>
+          <t>7,68; 10,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,88; 8,14</t>
+          <t>5,03; 8,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,04; 6,75</t>
+          <t>5,06; 6,72</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,78; 9,61</t>
+          <t>7,74; 9,58</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,34; 9,08</t>
+          <t>7,4; 9,12</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,9; 7,28</t>
+          <t>4,96; 7,27</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,39; 8,97</t>
+          <t>4,59; 8,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,91; 13,47</t>
+          <t>6,95; 13,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,17; 10,1</t>
+          <t>5,03; 9,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,4; 11,55</t>
+          <t>6,25; 11,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,94; 12,13</t>
+          <t>7,11; 12,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,42; 10,83</t>
+          <t>5,49; 10,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,37; 11,07</t>
+          <t>6,21; 11,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,69; 8,95</t>
+          <t>5,72; 9,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,18; 9,64</t>
+          <t>6,12; 9,68</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,76; 11,12</t>
+          <t>6,93; 10,94</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,17; 9,62</t>
+          <t>6,17; 9,69</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,54; 9,71</t>
+          <t>6,57; 9,85</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,11; 7,9</t>
+          <t>6,01; 7,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,43; 10,58</t>
+          <t>8,47; 10,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,85; 8,73</t>
+          <t>6,92; 8,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,15; 7,82</t>
+          <t>5,12; 7,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,65; 7,33</t>
+          <t>5,54; 7,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,39; 9,37</t>
+          <t>7,44; 9,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,35; 9,27</t>
+          <t>7,39; 9,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,69; 8,02</t>
+          <t>5,8; 8,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,1; 7,31</t>
+          <t>6,09; 7,37</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,19; 9,59</t>
+          <t>8,19; 9,63</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,34; 8,65</t>
+          <t>7,35; 8,74</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,96; 7,66</t>
+          <t>5,98; 7,65</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>94475</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>109996</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>62750</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>44093</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>76788</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>103622</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>71191</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>60520</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>171262</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>213618</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>133941</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>104613</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>77327; 113607</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>89692; 131700</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>48957; 78401</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>33498; 58511</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>61820; 95942</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>85165; 124289</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>55723; 91100</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>50736; 72511</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>149378; 200366</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>189699; 244367</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>113436; 158412</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>88029; 122652</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>96822</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>165762</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>159030</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>128432</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>95719</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>155521</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>175483</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>152292</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>192541</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>321283</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>334512</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>280723</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>80277; 119715</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>142052; 195357</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>135151; 184854</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>89414; 158900</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>75605; 116197</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>132291; 180835</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>152657; 204453</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>112456; 183605</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>165825; 220306</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>287345; 355580</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>300757; 370901</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>224546; 329214</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>35423</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>47228</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>39353</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>56107</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>44578</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>35815</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>46225</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>47542</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>80001</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>83044</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>85578</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>103648</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>25313; 48589</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>33376; 65788</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>27501; 52678</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>40409; 77102</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>33851; 59685</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>25113; 49239</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>34086; 60963</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>37753; 60155</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>62932; 99462</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>65029; 102620</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>67677; 106256</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>85853; 128797</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>574</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>226720</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>322987</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>261133</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>228631</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>217084</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>294958</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>292899</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>260353</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>443804</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>617945</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>554032</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>488985</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>196981; 255794</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>288932; 360290</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>233595; 297332</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>176519; 266677</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>187296; 248215</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>263549; 326701</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>261010; 329677</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>211784; 293280</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>405507; 490355</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>569761; 669880</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>507693; 603830</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>424363; 542774</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>